--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Reports/CBA Liquidity Report.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Reports/CBA Liquidity Report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32" xml:space="preserve">
   <si>
     <t>Summary of Details</t>
   </si>
@@ -118,6 +118,46 @@
         <family val="2"/>
         <rFont val="Arial"/>
       </rPr>
+      <t xml:space="preserve">-1,000,000</t>
+    </r>
+  </si>
+  <si>
+    <t>N3EH2A65</t>
+  </si>
+  <si>
+    <t>1413434        </t>
+  </si>
+  <si>
+    <t>ESPS11413431</t>
+  </si>
+  <si>
+    <t>Australian Dollar             </t>
+  </si>
+  <si>
+    <t>Loan Initial Drawdown</t>
+  </si>
+  <si>
+    <t>Released</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.0"/>
+        <color rgb="FFFFFF"/>
+        <family val="2"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Total Increase/Decrease = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.0"/>
+        <color rgb="FFFFFF"/>
+        <family val="2"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">-500,000</t>
     </r>
   </si>
@@ -129,15 +169,6 @@
   </si>
   <si>
     <t>HENRY</t>
-  </si>
-  <si>
-    <t>Australian Dollar             </t>
-  </si>
-  <si>
-    <t>Loan Initial Drawdown</t>
-  </si>
-  <si>
-    <t>Released</t>
   </si>
 </sst>
 </file>
@@ -476,7 +507,7 @@
 
 <file path=xl/worksheets/Sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection/>
@@ -633,6 +664,35 @@
         <v>-500000.000</v>
       </c>
     </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="24">
+        <v>44197</v>
+      </c>
+      <c r="B7" s="25">
+        <v>-1000000.000</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0.000</v>
+      </c>
+      <c r="D7" s="25">
+        <v>-1000000.000</v>
+      </c>
+      <c r="E7" s="25">
+        <v>0.000</v>
+      </c>
+      <c r="F7" s="25">
+        <v>0.000</v>
+      </c>
+      <c r="G7" s="25">
+        <v>0</v>
+      </c>
+      <c r="H7" s="25">
+        <v>0.000</v>
+      </c>
+      <c r="I7" s="25">
+        <v>-1000000.000</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:I1"/>
@@ -644,7 +704,7 @@
 
 <file path=xl/worksheets/Sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
       <selection/>
@@ -655,7 +715,7 @@
     <col min="1" max="1" width="12.495057" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.821669" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.495057" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.229735" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.495057" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.760380" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.086991" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.229735" bestFit="1" customWidth="1"/>
@@ -699,7 +759,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="30">
-        <v>44196</v>
+        <v>44197</v>
       </c>
       <c r="B3" s="34" t="s">
         <v>21</v>
@@ -714,7 +774,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="20">
-        <v>44196</v>
+        <v>44197</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="36" t="s">
@@ -730,7 +790,7 @@
         <v>25</v>
       </c>
       <c r="G4" s="21">
-        <v>-500000</v>
+        <v>-1000000</v>
       </c>
       <c r="H4" s="36" t="s">
         <v>26</v>
@@ -739,11 +799,55 @@
         <v>27</v>
       </c>
     </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="30">
+        <v>44196</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="20">
+        <v>44196</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="21">
+        <v>-500000</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
 </worksheet>
 </file>